--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mst1</t>
   </si>
   <si>
     <t>Mst1r</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.01080207625883</v>
+        <v>0.3351736666666667</v>
       </c>
       <c r="H2">
-        <v>1.01080207625883</v>
+        <v>1.005521</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2033242568961982</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2033242568961982</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.59114635058485</v>
+        <v>0.023321</v>
       </c>
       <c r="N2">
-        <v>5.59114635058485</v>
+        <v>0.069963</v>
       </c>
       <c r="O2">
-        <v>0.7138491052133041</v>
+        <v>0.002926699609171003</v>
       </c>
       <c r="P2">
-        <v>0.7138491052133041</v>
+        <v>0.002926699609171003</v>
       </c>
       <c r="Q2">
-        <v>5.651542339838146</v>
+        <v>0.007816585080333333</v>
       </c>
       <c r="R2">
-        <v>5.651542339838146</v>
+        <v>0.070349265723</v>
       </c>
       <c r="S2">
-        <v>0.7138491052133041</v>
+        <v>0.0005950690231930879</v>
       </c>
       <c r="T2">
-        <v>0.7138491052133041</v>
+        <v>0.0005950690231930879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.3351736666666667</v>
+      </c>
+      <c r="H3">
+        <v>1.005521</v>
+      </c>
+      <c r="I3">
+        <v>0.2033242568961982</v>
+      </c>
+      <c r="J3">
+        <v>0.2033242568961982</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5.658153333333334</v>
+      </c>
+      <c r="N3">
+        <v>16.97446</v>
+      </c>
+      <c r="O3">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="P3">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="Q3">
+        <v>1.896463999295556</v>
+      </c>
+      <c r="R3">
+        <v>17.06817599366</v>
+      </c>
+      <c r="S3">
+        <v>0.1443759605996047</v>
+      </c>
+      <c r="T3">
+        <v>0.1443759605996047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.3351736666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.005521</v>
+      </c>
+      <c r="I4">
+        <v>0.2033242568961982</v>
+      </c>
+      <c r="J4">
+        <v>0.2033242568961982</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.286887</v>
+      </c>
+      <c r="N4">
+        <v>6.860661</v>
+      </c>
+      <c r="O4">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="P4">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="Q4">
+        <v>0.7665043010423335</v>
+      </c>
+      <c r="R4">
+        <v>6.898538709381001</v>
+      </c>
+      <c r="S4">
+        <v>0.05835322727340043</v>
+      </c>
+      <c r="T4">
+        <v>0.05835322727340043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.01080207625883</v>
-      </c>
-      <c r="H3">
-        <v>1.01080207625883</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2.24124611128448</v>
-      </c>
-      <c r="N3">
-        <v>2.24124611128448</v>
-      </c>
-      <c r="O3">
-        <v>0.2861508947866958</v>
-      </c>
-      <c r="P3">
-        <v>0.2861508947866958</v>
-      </c>
-      <c r="Q3">
-        <v>2.265456222693381</v>
-      </c>
-      <c r="R3">
-        <v>2.265456222693381</v>
-      </c>
-      <c r="S3">
-        <v>0.2861508947866958</v>
-      </c>
-      <c r="T3">
-        <v>0.2861508947866958</v>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.015674</v>
+      </c>
+      <c r="H5">
+        <v>3.047022</v>
+      </c>
+      <c r="I5">
+        <v>0.616131820117499</v>
+      </c>
+      <c r="J5">
+        <v>0.6161318201174989</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.023321</v>
+      </c>
+      <c r="N5">
+        <v>0.069963</v>
+      </c>
+      <c r="O5">
+        <v>0.002926699609171003</v>
+      </c>
+      <c r="P5">
+        <v>0.002926699609171003</v>
+      </c>
+      <c r="Q5">
+        <v>0.023686533354</v>
+      </c>
+      <c r="R5">
+        <v>0.213178800186</v>
+      </c>
+      <c r="S5">
+        <v>0.001803232757135703</v>
+      </c>
+      <c r="T5">
+        <v>0.001803232757135703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.015674</v>
+      </c>
+      <c r="H6">
+        <v>3.047022</v>
+      </c>
+      <c r="I6">
+        <v>0.616131820117499</v>
+      </c>
+      <c r="J6">
+        <v>0.6161318201174989</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5.658153333333334</v>
+      </c>
+      <c r="N6">
+        <v>16.97446</v>
+      </c>
+      <c r="O6">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="P6">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="Q6">
+        <v>5.74683922868</v>
+      </c>
+      <c r="R6">
+        <v>51.72155305812</v>
+      </c>
+      <c r="S6">
+        <v>0.4375012836312009</v>
+      </c>
+      <c r="T6">
+        <v>0.4375012836312008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.015674</v>
+      </c>
+      <c r="H7">
+        <v>3.047022</v>
+      </c>
+      <c r="I7">
+        <v>0.616131820117499</v>
+      </c>
+      <c r="J7">
+        <v>0.6161318201174989</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.286887</v>
+      </c>
+      <c r="N7">
+        <v>6.860661</v>
+      </c>
+      <c r="O7">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="P7">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="Q7">
+        <v>2.322731666838</v>
+      </c>
+      <c r="R7">
+        <v>20.904585001542</v>
+      </c>
+      <c r="S7">
+        <v>0.1768273037291624</v>
+      </c>
+      <c r="T7">
+        <v>0.1768273037291624</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.297621</v>
+      </c>
+      <c r="H8">
+        <v>0.8928630000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1805439229863029</v>
+      </c>
+      <c r="J8">
+        <v>0.1805439229863028</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.023321</v>
+      </c>
+      <c r="N8">
+        <v>0.069963</v>
+      </c>
+      <c r="O8">
+        <v>0.002926699609171003</v>
+      </c>
+      <c r="P8">
+        <v>0.002926699609171003</v>
+      </c>
+      <c r="Q8">
+        <v>0.006940819341</v>
+      </c>
+      <c r="R8">
+        <v>0.06246737406900001</v>
+      </c>
+      <c r="S8">
+        <v>0.0005283978288422122</v>
+      </c>
+      <c r="T8">
+        <v>0.0005283978288422121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.297621</v>
+      </c>
+      <c r="H9">
+        <v>0.8928630000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1805439229863029</v>
+      </c>
+      <c r="J9">
+        <v>0.1805439229863028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.658153333333334</v>
+      </c>
+      <c r="N9">
+        <v>16.97446</v>
+      </c>
+      <c r="O9">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="P9">
+        <v>0.7100774044550523</v>
+      </c>
+      <c r="Q9">
+        <v>1.68398525322</v>
+      </c>
+      <c r="R9">
+        <v>15.15586727898</v>
+      </c>
+      <c r="S9">
+        <v>0.1282001602242468</v>
+      </c>
+      <c r="T9">
+        <v>0.1282001602242468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.297621</v>
+      </c>
+      <c r="H10">
+        <v>0.8928630000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1805439229863029</v>
+      </c>
+      <c r="J10">
+        <v>0.1805439229863028</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.286887</v>
+      </c>
+      <c r="N10">
+        <v>6.860661</v>
+      </c>
+      <c r="O10">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="P10">
+        <v>0.2869958959357767</v>
+      </c>
+      <c r="Q10">
+        <v>0.6806255958270001</v>
+      </c>
+      <c r="R10">
+        <v>6.125630362443001</v>
+      </c>
+      <c r="S10">
+        <v>0.05181536493321386</v>
+      </c>
+      <c r="T10">
+        <v>0.05181536493321385</v>
       </c>
     </row>
   </sheetData>
